--- a/PREFERENCIAS.xlsx
+++ b/PREFERENCIAS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="379">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -337,9 +337,6 @@
     <t>Investigaciones con información verificable, Entrevistas a los candidatos (por medio escrito o audiovisual), Videos cortos explicativos (entre 1 a 5 minutos), Boletines informativos (publicados por instituciones estatales u ONGs)</t>
   </si>
   <si>
-    <t>Economía</t>
-  </si>
-  <si>
     <t>Investigaciones con información verificable, Entrevistas a los candidatos (por medio escrito o audiovisual), Videos informativos extensos (de 10 minutos a más), Videos cortos explicativos (entre 1 a 5 minutos), Resúmenes</t>
   </si>
   <si>
@@ -556,9 +553,6 @@
     <t>Facebook, Whatsapp, Twitter, Youtube</t>
   </si>
   <si>
-    <t xml:space="preserve">administración y Marketing </t>
-  </si>
-  <si>
     <t>Artículos de opinión cortos, Investigaciones con información verificable, Infografía (uso de imagenes para explicar un tema), Videos informativos extensos (de 10 minutos a más), Videos cortos explicativos (entre 1 a 5 minutos), Mapas mentales, Resúmenes, Podcasts, Boletines informativos (publicados por instituciones estatales u ONGs)</t>
   </si>
   <si>
@@ -613,9 +607,6 @@
     <t>Secundaria incompleta</t>
   </si>
   <si>
-    <t>Biología marina</t>
-  </si>
-  <si>
     <t>Artículos de opinión cortos, Videos informativos extensos (de 10 minutos a más), Resúmenes</t>
   </si>
   <si>
@@ -772,9 +763,6 @@
     <t>Investigaciones con información verificable, Infografía (uso de imagenes para explicar un tema), Videos cortos explicativos (entre 1 a 5 minutos), Mapas mentales, Resúmenes, Podcasts, Boletines informativos (publicados por instituciones estatales u ONGs)</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrónica industrial </t>
-  </si>
-  <si>
     <t>Artículos de opinión cortos, Investigaciones con información verificable, Memes, Entrevistas a los candidatos (por medio escrito o audiovisual), Videos informativos extensos (de 10 minutos a más), Resúmenes, Podcasts</t>
   </si>
   <si>
@@ -1111,9 +1099,6 @@
     <t>Artículos de opinión cortos, Investigaciones con información verificable, Entrevistas a los candidatos (por medio escrito o audiovisual), Videos informativos extensos (de 10 minutos a más), Podcasts</t>
   </si>
   <si>
-    <t>Ya culmine Ingeniería Industrial</t>
-  </si>
-  <si>
     <t>Infografía (uso de imagenes para explicar un tema), Videos cortos explicativos (entre 1 a 5 minutos), Mapas mentales, Boletines informativos (publicados por instituciones estatales u ONGs)</t>
   </si>
   <si>
@@ -1126,9 +1111,6 @@
     <t>Artículos de opinión cortos, Podcasts</t>
   </si>
   <si>
-    <t xml:space="preserve">Administración de Turismo </t>
-  </si>
-  <si>
     <t>Artículos de opinión cortos, Infografía (uso de imagenes para explicar un tema), Memes, Entrevistas a los candidatos (por medio escrito o audiovisual), Videos cortos explicativos (entre 1 a 5 minutos)</t>
   </si>
   <si>
@@ -1136,9 +1118,6 @@
   </si>
   <si>
     <t>Videos informativos extensos (de 10 minutos a más), Videos cortos explicativos (entre 1 a 5 minutos), Podcasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfermeria </t>
   </si>
   <si>
     <t>Artículos de opinión cortos, Investigaciones con información verificable, Infografía (uso de imagenes para explicar un tema), Entrevistas a los candidatos (por medio escrito o audiovisual), Videos informativos extensos (de 10 minutos a más), Videos cortos explicativos (entre 1 a 5 minutos), Podcasts, Boletines informativos (publicados por instituciones estatales u ONGs)</t>
@@ -2597,8 +2576,8 @@
       <c r="B47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>108</v>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>16</v>
@@ -2613,7 +2592,7 @@
         <v>21</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
@@ -2633,10 +2612,10 @@
         <v>67</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="49">
@@ -2662,7 +2641,7 @@
         <v>52</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
@@ -2673,7 +2652,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>16</v>
@@ -2688,7 +2667,7 @@
         <v>60</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
@@ -2708,7 +2687,7 @@
         <v>20</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>74</v>
@@ -2728,13 +2707,13 @@
         <v>29</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="53">
@@ -2786,7 +2765,7 @@
         <v>18</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
@@ -2832,7 +2811,7 @@
         <v>31</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
@@ -2855,7 +2834,7 @@
         <v>69</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>33</v>
@@ -2881,10 +2860,10 @@
         <v>20</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59">
@@ -2904,13 +2883,13 @@
         <v>11</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60">
@@ -2936,7 +2915,7 @@
         <v>18</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61">
@@ -2959,7 +2938,7 @@
         <v>18</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62">
@@ -2982,7 +2961,7 @@
         <v>59</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>45</v>
@@ -3037,7 +3016,7 @@
         <v>18</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
@@ -3048,7 +3027,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>10</v>
@@ -3060,7 +3039,7 @@
         <v>69</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>32</v>
@@ -3112,7 +3091,7 @@
         <v>21</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68">
@@ -3135,10 +3114,10 @@
         <v>30</v>
       </c>
       <c r="G68" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="69">
@@ -3161,7 +3140,7 @@
         <v>21</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70">
@@ -3187,7 +3166,7 @@
         <v>52</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71">
@@ -3221,7 +3200,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>16</v>
@@ -3236,7 +3215,7 @@
         <v>21</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73">
@@ -3256,10 +3235,10 @@
         <v>69</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74">
@@ -3282,10 +3261,10 @@
         <v>54</v>
       </c>
       <c r="G74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="75">
@@ -3334,7 +3313,7 @@
         <v>47</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -3354,10 +3333,10 @@
         <v>30</v>
       </c>
       <c r="G77" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -3380,7 +3359,7 @@
         <v>59</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>105</v>
@@ -3394,7 +3373,7 @@
         <v>8</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>16</v>
@@ -3409,7 +3388,7 @@
         <v>31</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
@@ -3420,7 +3399,7 @@
         <v>49</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>16</v>
@@ -3429,13 +3408,13 @@
         <v>67</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81">
@@ -3455,13 +3434,13 @@
         <v>29</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
@@ -3484,10 +3463,10 @@
         <v>59</v>
       </c>
       <c r="G82" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="83">
@@ -3510,10 +3489,10 @@
         <v>54</v>
       </c>
       <c r="G83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -3556,10 +3535,10 @@
         <v>69</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86">
@@ -3582,7 +3561,7 @@
         <v>20</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>77</v>
@@ -3596,7 +3575,7 @@
         <v>8</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>10</v>
@@ -3608,10 +3587,10 @@
         <v>20</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88">
@@ -3729,10 +3708,10 @@
         <v>20</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
@@ -3784,7 +3763,7 @@
         <v>82</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
@@ -3833,10 +3812,10 @@
         <v>54</v>
       </c>
       <c r="G96" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="97">
@@ -3847,7 +3826,7 @@
         <v>62</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>10</v>
@@ -3885,10 +3864,10 @@
         <v>20</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
@@ -3908,10 +3887,10 @@
         <v>69</v>
       </c>
       <c r="G99" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H99" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="100">
@@ -3934,10 +3913,10 @@
         <v>46</v>
       </c>
       <c r="G100" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="101">
@@ -3960,10 +3939,10 @@
         <v>30</v>
       </c>
       <c r="G101" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="102">
@@ -3986,7 +3965,7 @@
         <v>44</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103">
@@ -3997,7 +3976,7 @@
         <v>8</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>16</v>
@@ -4009,7 +3988,7 @@
         <v>12</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>103</v>
@@ -4038,7 +4017,7 @@
         <v>60</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
@@ -4061,7 +4040,7 @@
         <v>69</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>93</v>
@@ -4084,7 +4063,7 @@
         <v>54</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>64</v>
@@ -4107,10 +4086,10 @@
         <v>11</v>
       </c>
       <c r="F107" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H107" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="108">
@@ -4136,7 +4115,7 @@
         <v>65</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109">
@@ -4162,7 +4141,7 @@
         <v>102</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110">
@@ -4176,7 +4155,7 @@
         <v>87</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>11</v>
@@ -4214,7 +4193,7 @@
         <v>60</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112">
@@ -4237,10 +4216,10 @@
         <v>59</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113">
@@ -4277,7 +4256,7 @@
         <v>8</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>16</v>
@@ -4289,10 +4268,10 @@
         <v>20</v>
       </c>
       <c r="G114" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H114" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="115">
@@ -4344,7 +4323,7 @@
         <v>80</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117">
@@ -4367,7 +4346,7 @@
         <v>35</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>33</v>
@@ -4393,7 +4372,7 @@
         <v>20</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>32</v>
@@ -4422,7 +4401,7 @@
         <v>82</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120">
@@ -4445,7 +4424,7 @@
         <v>59</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>77</v>
@@ -4471,7 +4450,7 @@
         <v>46</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>76</v>
@@ -4484,8 +4463,8 @@
       <c r="B122" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>181</v>
+      <c r="C122" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>10</v>
@@ -4497,10 +4476,10 @@
         <v>54</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123">
@@ -4523,7 +4502,7 @@
         <v>85</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124">
@@ -4546,7 +4525,7 @@
         <v>18</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125">
@@ -4572,7 +4551,7 @@
         <v>31</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126">
@@ -4624,7 +4603,7 @@
         <v>18</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128">
@@ -4650,7 +4629,7 @@
         <v>18</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129">
@@ -4676,7 +4655,7 @@
         <v>90</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130">
@@ -4699,7 +4678,7 @@
         <v>18</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131">
@@ -4722,10 +4701,10 @@
         <v>30</v>
       </c>
       <c r="G131" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H131" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="132">
@@ -4745,13 +4724,13 @@
         <v>11</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133">
@@ -4777,7 +4756,7 @@
         <v>90</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134">
@@ -4788,7 +4767,7 @@
         <v>8</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>16</v>
@@ -4800,7 +4779,7 @@
         <v>46</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>45</v>
@@ -4826,7 +4805,7 @@
         <v>51</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>37</v>
@@ -4852,10 +4831,10 @@
         <v>17</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="137">
@@ -4875,7 +4854,7 @@
         <v>20</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>93</v>
@@ -4927,7 +4906,7 @@
         <v>60</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140">
@@ -4973,10 +4952,10 @@
         <v>20</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142">
@@ -4999,10 +4978,10 @@
         <v>51</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143">
@@ -5074,7 +5053,7 @@
         <v>21</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
@@ -5100,7 +5079,7 @@
         <v>60</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147">
@@ -5126,7 +5105,7 @@
         <v>65</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="148">
@@ -5146,7 +5125,7 @@
         <v>46</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>74</v>
@@ -5157,10 +5136,7 @@
         <v>44228.37860303241</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>10</v>
@@ -5175,7 +5151,7 @@
         <v>60</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="150">
@@ -5201,7 +5177,7 @@
         <v>31</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151">
@@ -5218,13 +5194,13 @@
         <v>29</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152">
@@ -5247,10 +5223,10 @@
         <v>20</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153">
@@ -5260,8 +5236,8 @@
       <c r="B153" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>108</v>
+      <c r="C153" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>16</v>
@@ -5273,10 +5249,10 @@
         <v>69</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154">
@@ -5296,7 +5272,7 @@
         <v>67</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>18</v>
@@ -5348,7 +5324,7 @@
         <v>26</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157">
@@ -5395,10 +5371,10 @@
         <v>20</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="159">
@@ -5421,10 +5397,10 @@
         <v>46</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160">
@@ -5450,7 +5426,7 @@
         <v>60</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161">
@@ -5470,13 +5446,13 @@
         <v>11</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162">
@@ -5502,7 +5478,7 @@
         <v>75</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163">
@@ -5513,7 +5489,7 @@
         <v>8</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>10</v>
@@ -5525,10 +5501,10 @@
         <v>20</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164">
@@ -5551,7 +5527,7 @@
         <v>60</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="165">
@@ -5577,7 +5553,7 @@
         <v>60</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="166">
@@ -5600,10 +5576,10 @@
         <v>20</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="167">
@@ -5655,7 +5631,7 @@
         <v>21</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169">
@@ -5675,10 +5651,10 @@
         <v>17</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="170">
@@ -5698,7 +5674,7 @@
         <v>59</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>73</v>
@@ -5727,7 +5703,7 @@
         <v>21</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172">
@@ -5747,7 +5723,7 @@
         <v>11</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>31</v>
@@ -5779,7 +5755,7 @@
         <v>21</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="174">
@@ -5805,7 +5781,7 @@
         <v>97</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175">
@@ -5816,7 +5792,7 @@
         <v>28</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>10</v>
@@ -5831,7 +5807,7 @@
         <v>60</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176">
@@ -5880,10 +5856,10 @@
         <v>20</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="178">
@@ -5894,7 +5870,7 @@
         <v>49</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>10</v>
@@ -5906,7 +5882,7 @@
         <v>54</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>37</v>
@@ -5935,7 +5911,7 @@
         <v>82</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="180">
@@ -5969,7 +5945,7 @@
         <v>8</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>10</v>
@@ -5981,10 +5957,10 @@
         <v>85</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="182">
@@ -6007,10 +5983,10 @@
         <v>12</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="183">
@@ -6021,7 +5997,7 @@
         <v>8</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>10</v>
@@ -6036,7 +6012,7 @@
         <v>97</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184">
@@ -6047,7 +6023,7 @@
         <v>8</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>10</v>
@@ -6085,7 +6061,7 @@
         <v>36</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186">
@@ -6108,7 +6084,7 @@
         <v>18</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187">
@@ -6154,7 +6130,7 @@
         <v>60</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189">
@@ -6177,7 +6153,7 @@
         <v>30</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>64</v>
@@ -6200,10 +6176,10 @@
         <v>59</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="191">
@@ -6226,7 +6202,7 @@
         <v>59</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>76</v>
@@ -6252,10 +6228,10 @@
         <v>51</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="193">
@@ -6307,7 +6283,7 @@
         <v>75</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="195">
@@ -6333,7 +6309,7 @@
         <v>60</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="196">
@@ -6359,7 +6335,7 @@
         <v>60</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="197">
@@ -6382,10 +6358,10 @@
         <v>69</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="198">
@@ -6463,7 +6439,7 @@
         <v>60</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="201">
@@ -6489,7 +6465,7 @@
         <v>23</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="202">
@@ -6515,7 +6491,7 @@
         <v>60</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="203">
@@ -6541,7 +6517,7 @@
         <v>31</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="204">
@@ -6564,10 +6540,10 @@
         <v>59</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="205">
@@ -6578,7 +6554,7 @@
         <v>8</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>16</v>
@@ -6590,10 +6566,10 @@
         <v>17</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="206">
@@ -6619,7 +6595,7 @@
         <v>18</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="207">
@@ -6630,7 +6606,7 @@
         <v>8</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>16</v>
@@ -6642,10 +6618,10 @@
         <v>17</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="208">
@@ -6697,7 +6673,7 @@
         <v>60</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="210">
@@ -6723,7 +6699,7 @@
         <v>21</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="211">
@@ -6746,10 +6722,10 @@
         <v>17</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="212">
@@ -6772,7 +6748,7 @@
         <v>46</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>105</v>
@@ -6801,7 +6777,7 @@
         <v>78</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="214">
@@ -6824,7 +6800,7 @@
         <v>20</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H214" s="3" t="s">
         <v>77</v>
@@ -6838,7 +6814,7 @@
         <v>28</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>16</v>
@@ -6853,7 +6829,7 @@
         <v>60</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="216">
@@ -6879,7 +6855,7 @@
         <v>47</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="217">
@@ -6925,7 +6901,7 @@
         <v>20</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H218" s="3" t="s">
         <v>64</v>
@@ -6968,10 +6944,10 @@
         <v>67</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="221">
@@ -6982,7 +6958,7 @@
         <v>49</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>16</v>
@@ -7017,10 +6993,10 @@
         <v>20</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="223">
@@ -7043,10 +7019,10 @@
         <v>51</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="224">
@@ -7066,10 +7042,10 @@
         <v>46</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="225">
@@ -7089,10 +7065,10 @@
         <v>69</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226">
@@ -7112,7 +7088,7 @@
         <v>12</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H226" s="3" t="s">
         <v>105</v>
@@ -7138,7 +7114,7 @@
         <v>20</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H227" s="3" t="s">
         <v>48</v>
@@ -7164,10 +7140,10 @@
         <v>85</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="229">
@@ -7175,7 +7151,7 @@
         <v>44228.557266655094</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>38</v>
@@ -7190,10 +7166,10 @@
         <v>20</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="230">
@@ -7210,10 +7186,10 @@
         <v>67</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H230" s="3" t="s">
         <v>64</v>
@@ -7239,10 +7215,10 @@
         <v>20</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="232">
@@ -7268,7 +7244,7 @@
         <v>21</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="233">
@@ -7294,7 +7270,7 @@
         <v>80</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="234">
@@ -7320,7 +7296,7 @@
         <v>78</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="235">
@@ -7331,7 +7307,7 @@
         <v>8</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>10</v>
@@ -7343,10 +7319,10 @@
         <v>12</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="236">
@@ -7357,7 +7333,7 @@
         <v>28</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>16</v>
@@ -7372,7 +7348,7 @@
         <v>23</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="237">
@@ -7398,7 +7374,7 @@
         <v>47</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="238">
@@ -7421,10 +7397,10 @@
         <v>35</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="239">
@@ -7450,7 +7426,7 @@
         <v>60</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="240">
@@ -7461,7 +7437,7 @@
         <v>8</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>10</v>
@@ -7473,7 +7449,7 @@
         <v>69</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H240" s="3" t="s">
         <v>33</v>
@@ -7499,10 +7475,10 @@
         <v>20</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="242">
@@ -7525,7 +7501,7 @@
         <v>47</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="243">
@@ -7539,7 +7515,7 @@
         <v>15</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>11</v>
@@ -7548,10 +7524,10 @@
         <v>20</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="244">
@@ -7574,7 +7550,7 @@
         <v>59</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H244" s="3" t="s">
         <v>105</v>
@@ -7588,7 +7564,7 @@
         <v>8</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>16</v>
@@ -7597,13 +7573,13 @@
         <v>67</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="246">
@@ -7629,7 +7605,7 @@
         <v>60</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="247">
@@ -7640,7 +7616,7 @@
         <v>49</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>16</v>
@@ -7652,10 +7628,10 @@
         <v>20</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="248">
@@ -7678,7 +7654,7 @@
         <v>90</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="249">
@@ -7701,10 +7677,10 @@
         <v>20</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="250">
@@ -7715,7 +7691,7 @@
         <v>8</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>16</v>
@@ -7730,7 +7706,7 @@
         <v>82</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="251">
@@ -7753,7 +7729,7 @@
         <v>60</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="252">
@@ -7776,7 +7752,7 @@
         <v>26</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="253">
@@ -7799,10 +7775,10 @@
         <v>59</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="254">
@@ -7819,13 +7795,13 @@
         <v>29</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G254" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="255">
@@ -7848,10 +7824,10 @@
         <v>46</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="256">
@@ -7874,10 +7850,10 @@
         <v>59</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="257">
@@ -7897,10 +7873,10 @@
         <v>59</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="258">
@@ -7926,7 +7902,7 @@
         <v>18</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="259">
@@ -7952,7 +7928,7 @@
         <v>60</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="260">
@@ -7978,7 +7954,7 @@
         <v>90</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="261">
@@ -8004,7 +7980,7 @@
         <v>18</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262">
@@ -8047,13 +8023,13 @@
         <v>11</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="264">
@@ -8076,10 +8052,10 @@
         <v>35</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="265">
@@ -8102,10 +8078,10 @@
         <v>54</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="266">
@@ -8128,7 +8104,7 @@
         <v>90</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="267">
@@ -8151,7 +8127,7 @@
         <v>23</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268">
@@ -8177,7 +8153,7 @@
         <v>75</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269">
@@ -8203,7 +8179,7 @@
         <v>82</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="270">
@@ -8226,10 +8202,10 @@
         <v>69</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="271">
@@ -8255,7 +8231,7 @@
         <v>60</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="272">
@@ -8266,7 +8242,7 @@
         <v>8</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>16</v>
@@ -8278,10 +8254,10 @@
         <v>20</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="273">
@@ -8301,7 +8277,7 @@
         <v>11</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>60</v>
@@ -8382,7 +8358,7 @@
         <v>21</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="277">
@@ -8405,10 +8381,10 @@
         <v>20</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="278">
@@ -8434,7 +8410,7 @@
         <v>60</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="279">
@@ -8454,13 +8430,13 @@
         <v>11</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="280">
@@ -8483,7 +8459,7 @@
         <v>52</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="281">
@@ -8509,7 +8485,7 @@
         <v>75</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="282">
@@ -8532,7 +8508,7 @@
         <v>59</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H282" s="3" t="s">
         <v>77</v>
@@ -8558,10 +8534,10 @@
         <v>20</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="284">
@@ -8613,7 +8589,7 @@
         <v>90</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="286">
@@ -8633,13 +8609,13 @@
         <v>11</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="287">
@@ -8665,7 +8641,7 @@
         <v>60</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="288">
@@ -8691,7 +8667,7 @@
         <v>97</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="289">
@@ -8740,7 +8716,7 @@
         <v>23</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="291">
@@ -8763,10 +8739,10 @@
         <v>12</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="292">
@@ -8815,10 +8791,10 @@
         <v>35</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="294">
@@ -8870,7 +8846,7 @@
         <v>60</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="296">
@@ -8890,13 +8866,13 @@
         <v>11</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G296" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="297">
@@ -8919,7 +8895,7 @@
         <v>97</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="298">
@@ -8939,13 +8915,13 @@
         <v>58</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="299">
@@ -8965,13 +8941,13 @@
         <v>11</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="300">
@@ -8994,10 +8970,10 @@
         <v>59</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="301">
@@ -9049,7 +9025,7 @@
         <v>60</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="303">
@@ -9069,10 +9045,10 @@
         <v>11</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H303" s="3" t="s">
         <v>94</v>
@@ -9101,7 +9077,7 @@
         <v>97</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="305">
@@ -9112,7 +9088,7 @@
         <v>62</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>10</v>
@@ -9124,7 +9100,7 @@
         <v>69</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H305" s="3" t="s">
         <v>64</v>
@@ -9164,7 +9140,7 @@
         <v>8</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>10</v>
@@ -9173,13 +9149,13 @@
         <v>11</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="308">
@@ -9190,7 +9166,7 @@
         <v>8</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>16</v>
@@ -9199,13 +9175,13 @@
         <v>29</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G308" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="309">
@@ -9228,10 +9204,10 @@
         <v>69</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="310">
@@ -9242,7 +9218,7 @@
         <v>8</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>10</v>
@@ -9254,10 +9230,10 @@
         <v>17</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="311">
@@ -9283,7 +9259,7 @@
         <v>18</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="312">
@@ -9326,7 +9302,7 @@
         <v>67</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G313" s="3" t="s">
         <v>78</v>
@@ -9366,7 +9342,7 @@
         <v>44228.82149952547</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>41</v>
@@ -9378,10 +9354,10 @@
         <v>29</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="316">
@@ -9404,7 +9380,7 @@
         <v>20</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H316" s="3" t="s">
         <v>37</v>
@@ -9418,7 +9394,7 @@
         <v>28</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>16</v>
@@ -9433,7 +9409,7 @@
         <v>31</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="318">
@@ -9459,7 +9435,7 @@
         <v>21</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="319">
@@ -9485,7 +9461,7 @@
         <v>75</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="320">
@@ -9511,7 +9487,7 @@
         <v>60</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="321">
@@ -9531,10 +9507,10 @@
         <v>59</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="322">
@@ -9586,7 +9562,7 @@
         <v>31</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="324">
@@ -9609,7 +9585,7 @@
         <v>20</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H324" s="3" t="s">
         <v>64</v>
@@ -9635,10 +9611,10 @@
         <v>26</v>
       </c>
       <c r="G325" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="326">
@@ -9649,7 +9625,7 @@
         <v>28</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>10</v>
@@ -9661,10 +9637,10 @@
         <v>59</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="327">
@@ -9687,10 +9663,10 @@
         <v>35</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="328">
@@ -9716,7 +9692,7 @@
         <v>60</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="329">
@@ -9739,7 +9715,7 @@
         <v>18</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="330">
@@ -9750,7 +9726,7 @@
         <v>28</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>16</v>
@@ -9765,7 +9741,7 @@
         <v>60</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="331">
@@ -9802,7 +9778,7 @@
         <v>28</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>10</v>
@@ -9814,10 +9790,10 @@
         <v>59</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="333">
@@ -9863,10 +9839,10 @@
         <v>35</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="335">
@@ -9877,7 +9853,7 @@
         <v>28</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>16</v>
@@ -9889,10 +9865,10 @@
         <v>69</v>
       </c>
       <c r="G335" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="336">
@@ -9915,7 +9891,7 @@
         <v>90</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="337">
@@ -9926,7 +9902,7 @@
         <v>28</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>16</v>
@@ -9938,10 +9914,10 @@
         <v>30</v>
       </c>
       <c r="G337" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="338">
@@ -9964,7 +9940,7 @@
         <v>54</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H338" s="3" t="s">
         <v>73</v>
@@ -9990,10 +9966,10 @@
         <v>69</v>
       </c>
       <c r="G339" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="340">
@@ -10013,10 +9989,10 @@
         <v>35</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="341">
@@ -10027,7 +10003,7 @@
         <v>8</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>16</v>
@@ -10042,7 +10018,7 @@
         <v>21</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="342">
@@ -10062,13 +10038,13 @@
         <v>11</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G342" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="343">
@@ -10079,7 +10055,7 @@
         <v>8</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>10</v>
@@ -10091,7 +10067,7 @@
         <v>85</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="344">
@@ -10102,7 +10078,7 @@
         <v>28</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>10</v>
@@ -10114,10 +10090,10 @@
         <v>51</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="345">
@@ -10143,7 +10119,7 @@
         <v>97</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="346">
@@ -10203,7 +10179,7 @@
         <v>28</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>10</v>
@@ -10215,10 +10191,10 @@
         <v>51</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="349">
@@ -10229,7 +10205,7 @@
         <v>8</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>10</v>
@@ -10244,7 +10220,7 @@
         <v>23</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="350">
@@ -10261,7 +10237,7 @@
         <v>67</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>23</v>
@@ -10278,7 +10254,7 @@
         <v>49</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>10</v>
@@ -10290,7 +10266,7 @@
         <v>59</v>
       </c>
       <c r="G351" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H351" s="3" t="s">
         <v>32</v>
@@ -10316,10 +10292,10 @@
         <v>17</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="353">
@@ -10339,7 +10315,7 @@
         <v>17</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H353" s="3" t="s">
         <v>32</v>
@@ -10362,10 +10338,10 @@
         <v>59</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="355">
@@ -10388,7 +10364,7 @@
         <v>97</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="356">
@@ -10411,10 +10387,10 @@
         <v>30</v>
       </c>
       <c r="G356" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H356" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="H356" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="357">
@@ -10440,7 +10416,7 @@
         <v>75</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="358">
@@ -10463,10 +10439,10 @@
         <v>46</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="359">
@@ -10477,7 +10453,7 @@
         <v>28</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>10</v>
@@ -10489,10 +10465,10 @@
         <v>51</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="360">
@@ -10515,7 +10491,7 @@
         <v>60</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="361">
@@ -10526,7 +10502,7 @@
         <v>8</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>10</v>
@@ -10541,7 +10517,7 @@
         <v>60</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="362">
@@ -10552,7 +10528,7 @@
         <v>8</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>16</v>
@@ -10564,10 +10540,10 @@
         <v>35</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="363">
@@ -10590,10 +10566,10 @@
         <v>69</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="364">
@@ -10616,10 +10592,10 @@
         <v>59</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="365">
@@ -10645,7 +10621,7 @@
         <v>18</v>
       </c>
       <c r="H365" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="366">
@@ -10668,10 +10644,10 @@
         <v>69</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="367">
@@ -10694,10 +10670,10 @@
         <v>51</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="368">
@@ -10720,10 +10696,10 @@
         <v>30</v>
       </c>
       <c r="G368" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H368" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="H368" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="369">
@@ -10749,7 +10725,7 @@
         <v>21</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="370">
@@ -10772,7 +10748,7 @@
         <v>97</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="371">
@@ -10795,10 +10771,10 @@
         <v>54</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="372">
@@ -10847,7 +10823,7 @@
         <v>47</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="374">
@@ -10873,7 +10849,7 @@
         <v>60</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="375">
@@ -10884,7 +10860,7 @@
         <v>28</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>366</v>
+        <v>38</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>10</v>
@@ -10899,7 +10875,7 @@
         <v>90</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="376">
@@ -10919,7 +10895,7 @@
         <v>29</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H376" s="3" t="s">
         <v>48</v>
@@ -10939,10 +10915,10 @@
         <v>67</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H377" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="378">
@@ -10965,10 +10941,10 @@
         <v>59</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H378" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="379">
@@ -10979,7 +10955,7 @@
         <v>8</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>371</v>
+        <v>50</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>16</v>
@@ -10991,10 +10967,10 @@
         <v>20</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="380">
@@ -11017,7 +10993,7 @@
         <v>69</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H380" s="3" t="s">
         <v>104</v>
@@ -11043,7 +11019,7 @@
         <v>69</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H381" s="3" t="s">
         <v>32</v>
@@ -11066,10 +11042,10 @@
         <v>17</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H382" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="383">
@@ -11080,7 +11056,7 @@
         <v>8</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>10</v>
@@ -11112,7 +11088,7 @@
         <v>67</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H384" s="3" t="s">
         <v>105</v>
@@ -11126,7 +11102,7 @@
         <v>8</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>10</v>
@@ -11141,7 +11117,7 @@
         <v>65</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="386">
@@ -11152,7 +11128,7 @@
         <v>8</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>10</v>
@@ -11167,7 +11143,7 @@
         <v>82</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="387">
@@ -11190,10 +11166,10 @@
         <v>85</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="388">
@@ -11219,7 +11195,7 @@
         <v>97</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="389">
@@ -11230,7 +11206,7 @@
         <v>62</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>16</v>
@@ -11242,10 +11218,10 @@
         <v>20</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H389" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="390">
@@ -11268,7 +11244,7 @@
         <v>85</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H390" s="3" t="s">
         <v>73</v>
@@ -11294,10 +11270,10 @@
         <v>20</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="392">
@@ -11317,7 +11293,7 @@
         <v>11</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G392" s="3" t="s">
         <v>18</v>
@@ -11334,7 +11310,7 @@
         <v>49</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>10</v>
@@ -11346,10 +11322,10 @@
         <v>17</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="394">
@@ -11398,7 +11374,7 @@
         <v>82</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="396">
@@ -11421,7 +11397,7 @@
         <v>23</v>
       </c>
       <c r="H396" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="397">
@@ -11432,7 +11408,7 @@
         <v>28</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>10</v>
@@ -11464,13 +11440,13 @@
         <v>67</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="399">
@@ -11487,13 +11463,13 @@
         <v>67</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="400">
@@ -11516,7 +11492,7 @@
         <v>65</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="401">
@@ -11542,7 +11518,7 @@
         <v>21</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="402">
@@ -11568,7 +11544,7 @@
         <v>78</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="403">
@@ -11576,7 +11552,7 @@
         <v>44231.34052859954</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>10</v>
@@ -11591,7 +11567,7 @@
         <v>60</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="404">
@@ -11614,7 +11590,7 @@
         <v>97</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="405">
@@ -11634,13 +11610,13 @@
         <v>67</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G405" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="406">
@@ -11663,7 +11639,7 @@
         <v>26</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="407">
@@ -11674,7 +11650,7 @@
         <v>28</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>10</v>
@@ -11686,7 +11662,7 @@
         <v>59</v>
       </c>
       <c r="G407" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H407" s="3" t="s">
         <v>27</v>
@@ -11741,7 +11717,7 @@
         <v>31</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/PREFERENCIAS.xlsx
+++ b/PREFERENCIAS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="375">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -640,9 +640,6 @@
     <t>Artículos de opinión cortos, Investigaciones con información verificable, Entrevistas a los candidatos (por medio escrito o audiovisual), Videos cortos explicativos (entre 1 a 5 minutos), Podcasts, Boletines informativos (publicados por instituciones estatales u ONGs)</t>
   </si>
   <si>
-    <t>Sociología</t>
-  </si>
-  <si>
     <t>Investigaciones con información verificable, Infografía (uso de imagenes para explicar un tema), Entrevistas a los candidatos (por medio escrito o audiovisual), Videos cortos explicativos (entre 1 a 5 minutos), Resúmenes, Boletines informativos (publicados por instituciones estatales u ONGs)</t>
   </si>
   <si>
@@ -685,9 +682,6 @@
     <t>Whatsapp, Twitter, Youtube</t>
   </si>
   <si>
-    <t>Ciencias Humanas (incluye psicología)</t>
-  </si>
-  <si>
     <t>Facebook, Linkedin, google</t>
   </si>
   <si>
@@ -820,9 +814,6 @@
     <t>Infografía (uso de imagenes para explicar un tema), Memes, Videos cortos explicativos (entre 1 a 5 minutos), Mapas mentales, Resúmenes</t>
   </si>
   <si>
-    <t>Tecnica</t>
-  </si>
-  <si>
     <t>Facebook, Tiktok, Youtube</t>
   </si>
   <si>
@@ -1063,7 +1054,7 @@
     <t>Artículos de opinión cortos, Memes, Mapas mentales, Podcasts</t>
   </si>
   <si>
-    <t>Farmacia y Bioquimica</t>
+    <t>Farmacia y bioquímica</t>
   </si>
   <si>
     <t>Artículos de opinión cortos, Investigaciones con información verificable, Infografía (uso de imagenes para explicar un tema), Entrevistas a los candidatos (por medio escrito o audiovisual), Videos cortos explicativos (entre 1 a 5 minutos), Resúmenes</t>
@@ -1142,9 +1133,6 @@
   </si>
   <si>
     <t>Artículos de opinión cortos, Entrevistas a los candidatos (por medio escrito o audiovisual), Videos informativos extensos (de 10 minutos a más), Boletines informativos (publicados por instituciones estatales u ONGs)</t>
-  </si>
-  <si>
-    <t>Administracion</t>
   </si>
   <si>
     <t>Artículos de opinión cortos, Videos informativos extensos (de 10 minutos a más), Podcasts</t>
@@ -1416,7 +1404,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="21.57"/>
+    <col customWidth="1" min="1" max="2" width="21.57"/>
+    <col customWidth="1" min="3" max="3" width="38.29"/>
+    <col customWidth="1" min="4" max="5" width="21.57"/>
     <col customWidth="1" min="6" max="6" width="27.86"/>
     <col customWidth="1" min="7" max="14" width="21.57"/>
   </cols>
@@ -5489,7 +5479,7 @@
         <v>8</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>10</v>
@@ -5504,7 +5494,7 @@
         <v>144</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="164">
@@ -5527,7 +5517,7 @@
         <v>60</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="165">
@@ -5553,7 +5543,7 @@
         <v>60</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="166">
@@ -5579,7 +5569,7 @@
         <v>137</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="167">
@@ -5631,7 +5621,7 @@
         <v>21</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="169">
@@ -5651,10 +5641,10 @@
         <v>17</v>
       </c>
       <c r="G169" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H169" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="170">
@@ -5674,7 +5664,7 @@
         <v>59</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>73</v>
@@ -5703,7 +5693,7 @@
         <v>21</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172">
@@ -5755,7 +5745,7 @@
         <v>21</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174">
@@ -5781,7 +5771,7 @@
         <v>97</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175">
@@ -5856,10 +5846,10 @@
         <v>20</v>
       </c>
       <c r="G177" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H177" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="178">
@@ -5882,7 +5872,7 @@
         <v>54</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>37</v>
@@ -5945,7 +5935,7 @@
         <v>8</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>10</v>
@@ -5983,10 +5973,10 @@
         <v>12</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183">
@@ -6012,7 +6002,7 @@
         <v>97</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="184">
@@ -6023,7 +6013,7 @@
         <v>8</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>10</v>
@@ -6061,7 +6051,7 @@
         <v>36</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="186">
@@ -6084,7 +6074,7 @@
         <v>18</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="187">
@@ -6130,7 +6120,7 @@
         <v>60</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="189">
@@ -6153,7 +6143,7 @@
         <v>30</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>64</v>
@@ -6176,10 +6166,10 @@
         <v>59</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="191">
@@ -6231,7 +6221,7 @@
         <v>134</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="193">
@@ -6283,7 +6273,7 @@
         <v>75</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="195">
@@ -6309,7 +6299,7 @@
         <v>60</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="196">
@@ -6335,7 +6325,7 @@
         <v>60</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="197">
@@ -6361,7 +6351,7 @@
         <v>144</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="198">
@@ -6439,7 +6429,7 @@
         <v>60</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="201">
@@ -6517,7 +6507,7 @@
         <v>31</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="204">
@@ -6540,10 +6530,10 @@
         <v>59</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="205">
@@ -6554,7 +6544,7 @@
         <v>8</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>16</v>
@@ -6569,7 +6559,7 @@
         <v>116</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="206">
@@ -6606,7 +6596,7 @@
         <v>8</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>16</v>
@@ -6621,7 +6611,7 @@
         <v>116</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="208">
@@ -6673,7 +6663,7 @@
         <v>60</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="210">
@@ -6699,7 +6689,7 @@
         <v>21</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="211">
@@ -6725,7 +6715,7 @@
         <v>203</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="212">
@@ -6777,7 +6767,7 @@
         <v>78</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="214">
@@ -6855,7 +6845,7 @@
         <v>47</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="217">
@@ -6944,10 +6934,10 @@
         <v>67</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221">
@@ -6958,7 +6948,7 @@
         <v>49</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>16</v>
@@ -6993,10 +6983,10 @@
         <v>20</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="223">
@@ -7022,7 +7012,7 @@
         <v>127</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="224">
@@ -7042,7 +7032,7 @@
         <v>46</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H224" s="3" t="s">
         <v>129</v>
@@ -7065,10 +7055,10 @@
         <v>69</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="226">
@@ -7088,7 +7078,7 @@
         <v>12</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H226" s="3" t="s">
         <v>105</v>
@@ -7140,10 +7130,10 @@
         <v>85</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="229">
@@ -7186,7 +7176,7 @@
         <v>67</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>192</v>
@@ -7270,7 +7260,7 @@
         <v>80</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="234">
@@ -7296,7 +7286,7 @@
         <v>78</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="235">
@@ -7319,10 +7309,10 @@
         <v>12</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="236">
@@ -7333,7 +7323,7 @@
         <v>28</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>16</v>
@@ -7348,7 +7338,7 @@
         <v>23</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="237">
@@ -7400,7 +7390,7 @@
         <v>177</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="239">
@@ -7426,7 +7416,7 @@
         <v>60</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="240">
@@ -7437,7 +7427,7 @@
         <v>8</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>10</v>
@@ -7475,7 +7465,7 @@
         <v>20</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H241" s="3" t="s">
         <v>170</v>
@@ -7501,7 +7491,7 @@
         <v>47</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="243">
@@ -7527,7 +7517,7 @@
         <v>114</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244">
@@ -7550,7 +7540,7 @@
         <v>59</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H244" s="3" t="s">
         <v>105</v>
@@ -7563,9 +7553,7 @@
       <c r="B245" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C245" s="3" t="s">
-        <v>269</v>
-      </c>
+      <c r="C245" s="4"/>
       <c r="D245" s="3" t="s">
         <v>16</v>
       </c>
@@ -7576,10 +7564,10 @@
         <v>115</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="246">
@@ -7605,7 +7593,7 @@
         <v>60</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="247">
@@ -7631,7 +7619,7 @@
         <v>144</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="248">
@@ -7654,7 +7642,7 @@
         <v>90</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="249">
@@ -7680,7 +7668,7 @@
         <v>154</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250">
@@ -7706,7 +7694,7 @@
         <v>82</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251">
@@ -7729,7 +7717,7 @@
         <v>60</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="252">
@@ -7752,7 +7740,7 @@
         <v>26</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="253">
@@ -7775,10 +7763,10 @@
         <v>59</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="254">
@@ -7795,13 +7783,13 @@
         <v>29</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G254" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255">
@@ -7876,7 +7864,7 @@
         <v>146</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="258">
@@ -7902,7 +7890,7 @@
         <v>18</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="259">
@@ -7954,7 +7942,7 @@
         <v>90</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="261">
@@ -7980,7 +7968,7 @@
         <v>18</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="262">
@@ -8029,7 +8017,7 @@
         <v>47</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="264">
@@ -8081,7 +8069,7 @@
         <v>151</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="266">
@@ -8104,7 +8092,7 @@
         <v>90</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="267">
@@ -8127,7 +8115,7 @@
         <v>23</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="268">
@@ -8153,7 +8141,7 @@
         <v>75</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="269">
@@ -8179,7 +8167,7 @@
         <v>82</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="270">
@@ -8202,7 +8190,7 @@
         <v>69</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H270" s="3" t="s">
         <v>181</v>
@@ -8231,7 +8219,7 @@
         <v>60</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="272">
@@ -8242,7 +8230,7 @@
         <v>8</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>16</v>
@@ -8254,10 +8242,10 @@
         <v>20</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="273">
@@ -8358,7 +8346,7 @@
         <v>21</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="277">
@@ -8381,10 +8369,10 @@
         <v>20</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="278">
@@ -8430,13 +8418,13 @@
         <v>11</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="280">
@@ -8459,7 +8447,7 @@
         <v>52</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="281">
@@ -8508,7 +8496,7 @@
         <v>59</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H282" s="3" t="s">
         <v>77</v>
@@ -8537,7 +8525,7 @@
         <v>116</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="284">
@@ -8589,7 +8577,7 @@
         <v>90</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="286">
@@ -8615,7 +8603,7 @@
         <v>21</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="287">
@@ -8641,7 +8629,7 @@
         <v>60</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="288">
@@ -8667,7 +8655,7 @@
         <v>97</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="289">
@@ -8716,7 +8704,7 @@
         <v>23</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="291">
@@ -8739,10 +8727,10 @@
         <v>12</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="292">
@@ -8794,7 +8782,7 @@
         <v>144</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="294">
@@ -8846,7 +8834,7 @@
         <v>60</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="296">
@@ -8866,13 +8854,13 @@
         <v>11</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G296" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="297">
@@ -8895,7 +8883,7 @@
         <v>97</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="298">
@@ -8941,13 +8929,13 @@
         <v>11</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="300">
@@ -8970,10 +8958,10 @@
         <v>59</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="301">
@@ -9025,7 +9013,7 @@
         <v>60</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="303">
@@ -9048,7 +9036,7 @@
         <v>167</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H303" s="3" t="s">
         <v>94</v>
@@ -9077,7 +9065,7 @@
         <v>97</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="305">
@@ -9088,7 +9076,7 @@
         <v>62</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>10</v>
@@ -9100,7 +9088,7 @@
         <v>69</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H305" s="3" t="s">
         <v>64</v>
@@ -9140,7 +9128,7 @@
         <v>8</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>10</v>
@@ -9152,10 +9140,10 @@
         <v>141</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="308">
@@ -9166,7 +9154,7 @@
         <v>8</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>16</v>
@@ -9181,7 +9169,7 @@
         <v>47</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="309">
@@ -9207,7 +9195,7 @@
         <v>144</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="310">
@@ -9218,7 +9206,7 @@
         <v>8</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>10</v>
@@ -9233,7 +9221,7 @@
         <v>116</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="311">
@@ -9259,7 +9247,7 @@
         <v>18</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="312">
@@ -9354,10 +9342,10 @@
         <v>29</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="316">
@@ -9380,7 +9368,7 @@
         <v>20</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H316" s="3" t="s">
         <v>37</v>
@@ -9409,7 +9397,7 @@
         <v>31</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="318">
@@ -9435,7 +9423,7 @@
         <v>21</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="319">
@@ -9461,7 +9449,7 @@
         <v>75</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="320">
@@ -9487,7 +9475,7 @@
         <v>60</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="321">
@@ -9510,7 +9498,7 @@
         <v>166</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="322">
@@ -9562,7 +9550,7 @@
         <v>31</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="324">
@@ -9614,7 +9602,7 @@
         <v>127</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="326">
@@ -9625,7 +9613,7 @@
         <v>28</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>10</v>
@@ -9640,7 +9628,7 @@
         <v>146</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="327">
@@ -9663,10 +9651,10 @@
         <v>35</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="328">
@@ -9715,7 +9703,7 @@
         <v>18</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="330">
@@ -9726,7 +9714,7 @@
         <v>28</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>16</v>
@@ -9741,7 +9729,7 @@
         <v>60</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="331">
@@ -9778,7 +9766,7 @@
         <v>28</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>10</v>
@@ -9793,7 +9781,7 @@
         <v>116</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="333">
@@ -9839,10 +9827,10 @@
         <v>35</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="335">
@@ -9865,10 +9853,10 @@
         <v>69</v>
       </c>
       <c r="G335" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="336">
@@ -9891,7 +9879,7 @@
         <v>90</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="337">
@@ -9917,7 +9905,7 @@
         <v>123</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="338">
@@ -9966,10 +9954,10 @@
         <v>69</v>
       </c>
       <c r="G339" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="340">
@@ -9992,7 +9980,7 @@
         <v>146</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="341">
@@ -10003,7 +9991,7 @@
         <v>8</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>16</v>
@@ -10018,7 +10006,7 @@
         <v>21</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="342">
@@ -10044,7 +10032,7 @@
         <v>82</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="343">
@@ -10055,7 +10043,7 @@
         <v>8</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>10</v>
@@ -10067,7 +10055,7 @@
         <v>85</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="344">
@@ -10078,7 +10066,7 @@
         <v>28</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>10</v>
@@ -10090,10 +10078,10 @@
         <v>51</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="345">
@@ -10119,7 +10107,7 @@
         <v>97</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="346">
@@ -10179,7 +10167,7 @@
         <v>28</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>10</v>
@@ -10191,10 +10179,10 @@
         <v>51</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="349">
@@ -10205,7 +10193,7 @@
         <v>8</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>10</v>
@@ -10237,7 +10225,7 @@
         <v>67</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>23</v>
@@ -10292,7 +10280,7 @@
         <v>17</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H352" s="3" t="s">
         <v>181</v>
@@ -10315,7 +10303,7 @@
         <v>17</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H353" s="3" t="s">
         <v>32</v>
@@ -10341,7 +10329,7 @@
         <v>160</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="355">
@@ -10364,7 +10352,7 @@
         <v>97</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="356">
@@ -10416,7 +10404,7 @@
         <v>75</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="358">
@@ -10442,7 +10430,7 @@
         <v>146</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="359">
@@ -10453,7 +10441,7 @@
         <v>28</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>10</v>
@@ -10465,10 +10453,10 @@
         <v>51</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="360">
@@ -10491,7 +10479,7 @@
         <v>60</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="361">
@@ -10502,7 +10490,7 @@
         <v>8</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>10</v>
@@ -10517,7 +10505,7 @@
         <v>60</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="362">
@@ -10543,7 +10531,7 @@
         <v>144</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="363">
@@ -10569,7 +10557,7 @@
         <v>144</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="364">
@@ -10592,10 +10580,10 @@
         <v>59</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="365">
@@ -10644,7 +10632,7 @@
         <v>69</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H366" s="3" t="s">
         <v>111</v>
@@ -10673,7 +10661,7 @@
         <v>133</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="368">
@@ -10725,7 +10713,7 @@
         <v>21</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="370">
@@ -10748,7 +10736,7 @@
         <v>97</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="371">
@@ -10771,10 +10759,10 @@
         <v>54</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="372">
@@ -10823,7 +10811,7 @@
         <v>47</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="374">
@@ -10849,7 +10837,7 @@
         <v>60</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="375">
@@ -10875,7 +10863,7 @@
         <v>90</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="376">
@@ -10895,7 +10883,7 @@
         <v>29</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H376" s="3" t="s">
         <v>48</v>
@@ -10915,7 +10903,7 @@
         <v>67</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H377" s="3" t="s">
         <v>165</v>
@@ -10941,10 +10929,10 @@
         <v>59</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H378" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="379">
@@ -10970,7 +10958,7 @@
         <v>137</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="380">
@@ -10993,7 +10981,7 @@
         <v>69</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H380" s="3" t="s">
         <v>104</v>
@@ -11042,10 +11030,10 @@
         <v>17</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H382" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="383">
@@ -11056,7 +11044,7 @@
         <v>8</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>10</v>
@@ -11088,7 +11076,7 @@
         <v>67</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H384" s="3" t="s">
         <v>105</v>
@@ -11117,7 +11105,7 @@
         <v>65</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="386">
@@ -11143,7 +11131,7 @@
         <v>82</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="387">
@@ -11166,10 +11154,10 @@
         <v>85</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="388">
@@ -11195,7 +11183,7 @@
         <v>97</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="389">
@@ -11221,7 +11209,7 @@
         <v>134</v>
       </c>
       <c r="H389" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="390">
@@ -11273,7 +11261,7 @@
         <v>125</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="392">
@@ -11293,7 +11281,7 @@
         <v>11</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G392" s="3" t="s">
         <v>18</v>
@@ -11310,7 +11298,7 @@
         <v>49</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>10</v>
@@ -11374,7 +11362,7 @@
         <v>82</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="396">
@@ -11446,7 +11434,7 @@
         <v>146</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="399">
@@ -11469,7 +11457,7 @@
         <v>146</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="400">
@@ -11492,7 +11480,7 @@
         <v>65</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="401">
@@ -11518,7 +11506,7 @@
         <v>21</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="402">
@@ -11544,7 +11532,7 @@
         <v>78</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="403">
@@ -11567,7 +11555,7 @@
         <v>60</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="404">
@@ -11590,7 +11578,7 @@
         <v>97</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="405">
@@ -11610,7 +11598,7 @@
         <v>67</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G405" s="3" t="s">
         <v>60</v>
@@ -11639,7 +11627,7 @@
         <v>26</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="407">
@@ -11649,8 +11637,8 @@
       <c r="B407" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C407" s="3" t="s">
-        <v>377</v>
+      <c r="C407" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>10</v>
@@ -11717,7 +11705,7 @@
         <v>31</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
